--- a/tokenizing.xlsx
+++ b/tokenizing.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Darshan\Darshan\CPR\Final Project V1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2f83e5829ab758/Desktop/Seneca-CPR-Final-Project-Team-7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0783F94D-706C-41FF-917F-F6C45B68C52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{0783F94D-706C-41FF-917F-F6C45B68C52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9015965A-E35A-483F-954E-E4B10021D011}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{8E770B89-F9D4-48B7-BBAB-6D91EE1253DF}"/>
+    <workbookView xWindow="2500" yWindow="1720" windowWidth="16920" windowHeight="10450" xr2:uid="{8E770B89-F9D4-48B7-BBAB-6D91EE1253DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -87,7 +87,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
   <si>
     <t>Version 1</t>
   </si>
@@ -220,12 +220,78 @@
   <si>
     <t xml:space="preserve">This is because of the reason that the scope of the program is limited to the strings seperated by spaces only so even the test has been passed this program has failed </t>
   </si>
+  <si>
+    <t>Version 2</t>
+  </si>
+  <si>
+    <t>Darshan Kalpeshbhai Prajapati</t>
+  </si>
+  <si>
+    <t>Inputs</t>
+  </si>
+  <si>
+    <t>Expected results</t>
+  </si>
+  <si>
+    <t>Andrei,Sajeniouk</t>
+  </si>
+  <si>
+    <t>Yes It gives the expected result as the two phrases are tokenized and thus the output is correct</t>
+  </si>
+  <si>
+    <t>The program exits with 0 as expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Andrei,Sajeniouk,CPR101 </t>
+  </si>
+  <si>
+    <t>Yes It gives the expected result as the three phrases which are tokenized and thus the output is correct</t>
+  </si>
+  <si>
+    <t>Andrei,Sajeniouk;CPR101</t>
+  </si>
+  <si>
+    <t>Yes It gives the correct output as the two phrases which are seperated by semicolon are not seperated whereas the ones seperated by comma are tokeniaed</t>
+  </si>
+  <si>
+    <t>Andrei Sajeniouk</t>
+  </si>
+  <si>
+    <t>Yes it gives the right output as none of the phrases are tokenized</t>
+  </si>
+  <si>
+    <t>'It takes a string and a delimiter as a argument and then tokenizises the string whenver a delimiter comes in string</t>
+  </si>
+  <si>
+    <t>Andrei ,Sajeniouk</t>
+  </si>
+  <si>
+    <t>It should have made tokens which contains and in the first phrase in the string</t>
+  </si>
+  <si>
+    <t>the program will return and in the second token and not in the first one</t>
+  </si>
+  <si>
+    <t>It is the limitation of strtok() which cannot be overcame because it compares only one delimiter at a time</t>
+  </si>
+  <si>
+    <t>Andrei,  Sajeniouk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It did not passed because of the reason that space is not shown in the phrase 2 </t>
+  </si>
+  <si>
+    <t>this program should have shown the space in phrase 2 but it did not</t>
+  </si>
+  <si>
+    <t>It is again one of the limitations of strtok() which cannot be overcame because it compares only one delimiter at a time</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +351,22 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -529,86 +611,147 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{2FAD7561-5214-4A73-A433-0EF52722D7E2}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -920,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10B81B3-2664-4B9E-8C16-1FD5AC65F326}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -936,192 +1079,362 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="5"/>
+      <c r="H1" s="3"/>
     </row>
     <row r="2" spans="1:8" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="10"/>
     </row>
     <row r="3" spans="1:8" ht="50" x14ac:dyDescent="0.35">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="18" t="s">
+      <c r="G3" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="19"/>
+      <c r="H3" s="17"/>
     </row>
-    <row r="4" spans="1:8" ht="162.5" x14ac:dyDescent="0.35">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:8" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="22" t="s">
+      <c r="F4" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="19"/>
+      <c r="H4" s="17"/>
     </row>
-    <row r="5" spans="1:8" ht="212.5" x14ac:dyDescent="0.35">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:8" ht="75" x14ac:dyDescent="0.35">
+      <c r="A5" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="22" t="s">
+      <c r="F5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="19"/>
+      <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:8" ht="187.5" x14ac:dyDescent="0.35">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:8" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="22" t="s">
+      <c r="F6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="H6" s="19"/>
+      <c r="H6" s="17"/>
     </row>
     <row r="7" spans="1:8" ht="287.5" x14ac:dyDescent="0.35">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="21" t="s">
+      <c r="E7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="19"/>
+      <c r="H7" s="17"/>
     </row>
-    <row r="8" spans="1:8" ht="275" x14ac:dyDescent="0.35">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:8" ht="87.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="15" t="s">
+      <c r="C8" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="21" t="s">
+      <c r="E8" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="22" t="s">
+      <c r="F8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="19"/>
+      <c r="H8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="10" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="G10" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="G11" s="34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="100" x14ac:dyDescent="0.35">
+      <c r="A16" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="37" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="112.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>58</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A10:E10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1129,6 +1442,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091DA70FED0CF0C47ABEB2750A1D92CC4" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6979442916101ba318def1708def148">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31d5eec3c12ee2e8127422d567928fa7">
     <xsd:element name="properties">
@@ -1242,15 +1564,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1258,13 +1571,34 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99534669-77D1-4BD5-8721-C458A2D18A12}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DBB6B9A-3E56-46ED-995F-4ABF32B9ED40}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DBB6B9A-3E56-46ED-995F-4ABF32B9ED40}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99534669-77D1-4BD5-8721-C458A2D18A12}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18E9208-1C11-43F2-A44D-3B476DA3AB83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18E9208-1C11-43F2-A44D-3B476DA3AB83}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/tokenizing.xlsx
+++ b/tokenizing.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3a2f83e5829ab758/Desktop/Seneca-CPR-Final-Project-Team-7/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{0783F94D-706C-41FF-917F-F6C45B68C52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9015965A-E35A-483F-954E-E4B10021D011}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{0783F94D-706C-41FF-917F-F6C45B68C52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4038AF2F-B764-4106-93C9-A285F2D7913A}"/>
   <bookViews>
-    <workbookView xWindow="2500" yWindow="1720" windowWidth="16920" windowHeight="10450" xr2:uid="{8E770B89-F9D4-48B7-BBAB-6D91EE1253DF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{8E770B89-F9D4-48B7-BBAB-6D91EE1253DF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,12 +82,53 @@
         </r>
       </text>
     </comment>
+    <comment ref="B19" authorId="0" shapeId="0" xr:uid="{69795373-CB1B-4E9F-8463-4946558D552F}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> means a positive test expecting a successful result.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>−</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="12"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> means a negative test to generate a validation message or explore unexpected, undefined behaviours.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="77">
   <si>
     <t>Version 1</t>
   </si>
@@ -286,12 +327,84 @@
   <si>
     <t>It is again one of the limitations of strtok() which cannot be overcame because it compares only one delimiter at a time</t>
   </si>
+  <si>
+    <t>Version 3</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ / </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Courier New"/>
+        <family val="3"/>
+      </rPr>
+      <t>−</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Description </t>
+    </r>
+  </si>
+  <si>
+    <t>Enter the input as strings seperated by .dots</t>
+  </si>
+  <si>
+    <t>The output will contain tokenized sentences as the delimiter dot was used in the strings</t>
+  </si>
+  <si>
+    <t>The program worked in the expected manner.</t>
+  </si>
+  <si>
+    <t>Enter the input as strings seperated by three dots in between three sentences</t>
+  </si>
+  <si>
+    <t>The output will contain tokenized sentences as the delimiter dot was used in between the string</t>
+  </si>
+  <si>
+    <t>Enter the input q and check what happens</t>
+  </si>
+  <si>
+    <t>The program will exit with 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The program will end and returns 0  </t>
+  </si>
+  <si>
+    <t>Enter the input in which one of the sentence is seperated by space another one is seperated by comma</t>
+  </si>
+  <si>
+    <t>the program will return the sentences seperated by dot as one token and all other part of the string as another token</t>
+  </si>
+  <si>
+    <t>Enter the input as a string seperated by two dots between two words</t>
+  </si>
+  <si>
+    <t>It should have made a token in which there must have been a token in which nothing is given</t>
+  </si>
+  <si>
+    <t>The program does not returns a token which contains nothing</t>
+  </si>
+  <si>
+    <t>Enter the input as a string seprated by two dots between every two senetences</t>
+  </si>
+  <si>
+    <t>The program does not returns any token which contains nothing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Darshan Kalpeshbhai Prajapati </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,6 +480,11 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier New"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -619,7 +737,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -687,6 +805,54 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -699,53 +865,20 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="3" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="2" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -764,6 +897,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1063,10 +1200,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B10B81B3-2664-4B9E-8C16-1FD5AC65F326}">
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:G17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1079,13 +1216,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="52.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
@@ -1264,177 +1401,346 @@
     </row>
     <row r="9" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="10" spans="1:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="27" t="s">
+      <c r="B10" s="42"/>
+      <c r="C10" s="42"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="G10" s="28" t="s">
+      <c r="G10" s="24" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="29" t="s">
+      <c r="A11" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="E11" s="32" t="s">
+      <c r="E11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="33" t="s">
+      <c r="F11" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="34" t="s">
+      <c r="G11" s="30" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="37" t="s">
+      <c r="C12" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="37" t="s">
+      <c r="D12" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="39" t="s">
+      <c r="E12" s="34"/>
+      <c r="F12" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="40" t="s">
+      <c r="G12" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="37" t="s">
+      <c r="C13" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="38"/>
-      <c r="F13" s="39" t="s">
+      <c r="E13" s="34"/>
+      <c r="F13" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="40" t="s">
+      <c r="G13" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A14" s="41" t="s">
+      <c r="A14" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="37" t="s">
+      <c r="C14" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="39" t="s">
+      <c r="E14" s="34"/>
+      <c r="F14" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="40" t="s">
+      <c r="G14" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="62.5" x14ac:dyDescent="0.35">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C15" s="37" t="s">
+      <c r="C15" s="33" t="s">
         <v>48</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="33" t="s">
         <v>49</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="40" t="s">
+      <c r="G15" s="36" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="100" x14ac:dyDescent="0.35">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="37" t="s">
+      <c r="C16" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="40" t="s">
+      <c r="E16" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="39" t="s">
+      <c r="F16" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G16" s="40" t="s">
+      <c r="G16" s="36" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="112.5" x14ac:dyDescent="0.35">
-      <c r="A17" s="41" t="s">
+    <row r="17" spans="1:7" ht="113" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="40" t="s">
+      <c r="E17" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="F17" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="40" t="s">
+      <c r="G17" s="36" t="s">
         <v>58</v>
       </c>
     </row>
+    <row r="18" spans="1:7" ht="26.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="39" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="65.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="50" x14ac:dyDescent="0.35">
+      <c r="A20" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="46"/>
+      <c r="F20" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="62.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="46"/>
+      <c r="F21" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="50" x14ac:dyDescent="0.35">
+      <c r="A22" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="46"/>
+      <c r="F22" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="75" x14ac:dyDescent="0.35">
+      <c r="A23" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23" s="46"/>
+      <c r="F23" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="100" x14ac:dyDescent="0.35">
+      <c r="A24" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G24" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="100" x14ac:dyDescent="0.35">
+      <c r="A25" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="G25" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A10:E10"/>
+    <mergeCell ref="A18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -1442,15 +1748,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010091DA70FED0CF0C47ABEB2750A1D92CC4" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d6979442916101ba318def1708def148">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="31d5eec3c12ee2e8127422d567928fa7">
     <xsd:element name="properties">
@@ -1564,6 +1861,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1571,14 +1877,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DBB6B9A-3E56-46ED-995F-4ABF32B9ED40}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{99534669-77D1-4BD5-8721-C458A2D18A12}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1594,6 +1892,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4DBB6B9A-3E56-46ED-995F-4ABF32B9ED40}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F18E9208-1C11-43F2-A44D-3B476DA3AB83}">
   <ds:schemaRefs>
